--- a/صيدليات دكتور مصطفي طلعت_2026-01-07_18-21.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-07_18-21.xlsx
@@ -152,6 +152,9 @@
     <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
   </si>
   <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
     <t>IVY ZAD SYRUP 120 ML</t>
   </si>
   <si>
@@ -170,6 +173,9 @@
     <t>LIDOCAINE 10% TOPICAL SPRAY 15 GM</t>
   </si>
   <si>
+    <t>LILIOX 10 SACHET</t>
+  </si>
+  <si>
     <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
   </si>
   <si>
@@ -179,6 +185,9 @@
     <t>MANOVIPERCAINE PLUS TOPICAL SPRAY 15 ML</t>
   </si>
   <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
     <t>MEGAFEN-N 100MG/5ML SUSP. 120 ML</t>
   </si>
   <si>
@@ -278,10 +287,16 @@
     <t>سرنجات 10 سم</t>
   </si>
   <si>
+    <t>-3:0</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
     <t>-1:0</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t xml:space="preserve">شفرات فينوس حريمي </t>
@@ -1548,13 +1563,13 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
@@ -1574,17 +1589,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1600,17 +1615,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1626,17 +1641,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1644,7 +1659,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1652,17 +1667,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1678,17 +1693,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>-72.5</v>
+        <v>38</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1710,7 +1725,7 @@
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
@@ -1730,17 +1745,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>36.5</v>
+        <v>-72.5</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1756,13 +1771,13 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>35</v>
+        <v>350</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
@@ -1788,11 +1803,11 @@
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>46</v>
+        <v>36.5</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1808,17 +1823,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1826,7 +1841,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1834,13 +1849,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
@@ -1852,7 +1867,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1860,17 +1875,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1878,7 +1893,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1886,17 +1901,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1904,7 +1919,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1912,7 +1927,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
@@ -1922,7 +1937,7 @@
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1930,7 +1945,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1938,13 +1953,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
@@ -1964,17 +1979,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -1990,17 +2005,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>28.199999999999999</v>
+        <v>31</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2008,7 +2023,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2016,7 +2031,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
@@ -2034,7 +2049,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2042,17 +2057,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2060,7 +2075,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2068,17 +2083,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>59</v>
+        <v>28.199999999999999</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2086,7 +2101,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2094,17 +2109,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2120,17 +2135,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2146,17 +2161,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2164,7 +2179,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2172,17 +2187,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2190,7 +2205,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2198,17 +2213,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2216,7 +2231,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2224,17 +2239,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2242,7 +2257,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2250,17 +2265,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2268,7 +2283,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2276,13 +2291,13 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
@@ -2294,7 +2309,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2302,17 +2317,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>11.67</v>
+        <v>25</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2320,7 +2335,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2328,17 +2343,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>62</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2346,7 +2361,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2354,7 +2369,7 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
@@ -2364,7 +2379,7 @@
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2372,7 +2387,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2380,17 +2395,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>20</v>
+        <v>11.67</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2398,7 +2413,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2406,17 +2421,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>133.65000000000001</v>
+        <v>28</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>32</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2424,7 +2439,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2432,17 +2447,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2450,7 +2465,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2464,11 +2479,11 @@
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2476,7 +2491,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2484,17 +2499,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>10</v>
+        <v>133.65000000000001</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2502,7 +2517,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2510,13 +2525,13 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
@@ -2528,7 +2543,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2536,17 +2551,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2554,7 +2569,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2562,51 +2577,129 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" ht="24.75" customHeight="1">
+      <c r="A69" s="6">
+        <v>66</v>
+      </c>
+      <c t="s" r="B69" s="7">
+        <v>101</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c t="s" r="H69" s="8">
+        <v>95</v>
+      </c>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="9">
+        <v>20</v>
+      </c>
+      <c r="M69" s="9"/>
+      <c t="s" r="N69" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" ht="25.5" customHeight="1">
+      <c r="A70" s="6">
+        <v>67</v>
+      </c>
+      <c t="s" r="B70" s="7">
+        <v>102</v>
+      </c>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c t="s" r="H70" s="8">
+        <v>28</v>
+      </c>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="9">
+        <v>20</v>
+      </c>
+      <c r="M70" s="9"/>
+      <c t="s" r="N70" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" ht="24.75" customHeight="1">
+      <c r="A71" s="6">
+        <v>68</v>
+      </c>
+      <c t="s" r="B71" s="7">
+        <v>103</v>
+      </c>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c t="s" r="H71" s="8">
+        <v>32</v>
+      </c>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="9">
+        <v>80</v>
+      </c>
+      <c r="M71" s="9"/>
+      <c t="s" r="N71" s="7">
         <v>17</v>
       </c>
     </row>
-    <row r="69" ht="25.5" customHeight="1">
-      <c r="K69" s="10">
-        <v>3310.52</v>
-      </c>
-      <c r="L69" s="10"/>
-      <c r="M69" s="10"/>
-      <c r="N69" s="10"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="11">
-        <v>99</v>
-      </c>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c t="s" r="F70" s="12">
-        <v>100</v>
-      </c>
-      <c r="G70" s="12"/>
-      <c r="H70" s="13"/>
-      <c t="s" r="I70" s="14">
-        <v>101</v>
-      </c>
-      <c r="J70" s="14"/>
-      <c r="K70" s="14"/>
-      <c r="L70" s="14"/>
-      <c r="M70" s="14"/>
-      <c r="N70" s="14"/>
+    <row r="72" ht="26.25" customHeight="1">
+      <c r="K72" s="10">
+        <v>3536.52</v>
+      </c>
+      <c r="L72" s="10"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
+    </row>
+    <row r="73" ht="16.5" customHeight="1">
+      <c t="s" r="A73" s="11">
+        <v>104</v>
+      </c>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c t="s" r="F73" s="12">
+        <v>105</v>
+      </c>
+      <c r="G73" s="12"/>
+      <c r="H73" s="13"/>
+      <c t="s" r="I73" s="14">
+        <v>106</v>
+      </c>
+      <c r="J73" s="14"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="14"/>
+      <c r="M73" s="14"/>
+      <c r="N73" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="206">
+  <mergeCells count="215">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2809,10 +2902,19 @@
     <mergeCell ref="B68:G68"/>
     <mergeCell ref="H68:K68"/>
     <mergeCell ref="L68:M68"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="I70:N70"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="K72:N72"/>
+    <mergeCell ref="A73:E73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="I73:N73"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
